--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>Gfra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H2">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I2">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J2">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1058645</v>
+        <v>0.452919</v>
       </c>
       <c r="N2">
-        <v>0.211729</v>
+        <v>0.905838</v>
       </c>
       <c r="O2">
-        <v>0.009133991451461642</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P2">
-        <v>0.007982871865007578</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q2">
-        <v>0.02996222953616667</v>
+        <v>0.2262731238315</v>
       </c>
       <c r="R2">
-        <v>0.179773377217</v>
+        <v>0.905092495326</v>
       </c>
       <c r="S2">
-        <v>0.0009371899684565437</v>
+        <v>0.002767573805863959</v>
       </c>
       <c r="T2">
-        <v>0.001168664424131512</v>
+        <v>0.002406712610421975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H3">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I3">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J3">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.282732333333334</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N3">
-        <v>9.848197000000001</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O3">
-        <v>0.2832342198763835</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P3">
-        <v>0.3713090542738691</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q3">
-        <v>0.9290931301534445</v>
+        <v>1.6400153223115</v>
       </c>
       <c r="R3">
-        <v>8.361838171381001</v>
+        <v>9.840091933868999</v>
       </c>
       <c r="S3">
-        <v>0.02906114714496308</v>
+        <v>0.02005922475629419</v>
       </c>
       <c r="T3">
-        <v>0.05435834238927444</v>
+        <v>0.02616558359201078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2830243333333333</v>
+        <v>0.4995885</v>
       </c>
       <c r="H4">
-        <v>0.849073</v>
+        <v>0.999177</v>
       </c>
       <c r="I4">
-        <v>0.1026046469866766</v>
+        <v>0.08073427759634712</v>
       </c>
       <c r="J4">
-        <v>0.1463964903726289</v>
+        <v>0.07892927665008602</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.141729999999999</v>
+        <v>9.476675</v>
       </c>
       <c r="N4">
-        <v>16.28346</v>
+        <v>18.95335</v>
       </c>
       <c r="O4">
-        <v>0.7024686483203414</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P4">
-        <v>0.6139393975269154</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q4">
-        <v>2.30430770543</v>
+        <v>4.7344378482375</v>
       </c>
       <c r="R4">
-        <v>13.82584623258</v>
+        <v>18.93775139295</v>
       </c>
       <c r="S4">
-        <v>0.07207654768011652</v>
+        <v>0.05790747903418897</v>
       </c>
       <c r="T4">
-        <v>0.08987857309942668</v>
+        <v>0.05035698044765326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,40 +726,40 @@
         <v>0.849073</v>
       </c>
       <c r="I5">
-        <v>0.1026046469866766</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J5">
-        <v>0.1463964903726289</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05984166666666666</v>
+        <v>0.452919</v>
       </c>
       <c r="N5">
-        <v>0.179525</v>
+        <v>0.905838</v>
       </c>
       <c r="O5">
-        <v>0.005163140351813406</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P5">
-        <v>0.006768676334207809</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q5">
-        <v>0.01693664781388889</v>
+        <v>0.128187098029</v>
       </c>
       <c r="R5">
-        <v>0.152429830325</v>
+        <v>0.769122588174</v>
       </c>
       <c r="S5">
-        <v>0.0005297621931404799</v>
+        <v>0.00156787182121975</v>
       </c>
       <c r="T5">
-        <v>0.000990910459796295</v>
+        <v>0.002045157861188576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H6">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I6">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J6">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1058645</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N6">
-        <v>0.211729</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O6">
-        <v>0.009133991451461642</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P6">
-        <v>0.007982871865007578</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q6">
-        <v>0.26205407202625</v>
+        <v>0.9290931301534443</v>
       </c>
       <c r="R6">
-        <v>1.048216288105</v>
+        <v>8.361838171380999</v>
       </c>
       <c r="S6">
-        <v>0.008196801483005098</v>
+        <v>0.01136384987611536</v>
       </c>
       <c r="T6">
-        <v>0.006814207440876067</v>
+        <v>0.0222347897892159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,93 +829,93 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.4753725</v>
+        <v>0.2830243333333333</v>
       </c>
       <c r="H7">
-        <v>4.950745</v>
+        <v>0.849073</v>
       </c>
       <c r="I7">
-        <v>0.8973953530133233</v>
+        <v>0.0457371718801662</v>
       </c>
       <c r="J7">
-        <v>0.8536035096273711</v>
+        <v>0.06707191790155147</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.282732333333334</v>
+        <v>9.476675</v>
       </c>
       <c r="N7">
-        <v>9.848197000000001</v>
+        <v>18.95335</v>
       </c>
       <c r="O7">
-        <v>0.2832342198763835</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P7">
-        <v>0.3713090542738691</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q7">
-        <v>8.125985342794166</v>
+        <v>2.682129624091667</v>
       </c>
       <c r="R7">
-        <v>48.755912056765</v>
+        <v>16.09277774455</v>
       </c>
       <c r="S7">
-        <v>0.2541730727314204</v>
+        <v>0.03280545018283109</v>
       </c>
       <c r="T7">
-        <v>0.3169507118845947</v>
+        <v>0.042791970251147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4753725</v>
+        <v>5.4054465</v>
       </c>
       <c r="H8">
-        <v>4.950745</v>
+        <v>10.810893</v>
       </c>
       <c r="I8">
-        <v>0.8973953530133233</v>
+        <v>0.8735285505234867</v>
       </c>
       <c r="J8">
-        <v>0.8536035096273711</v>
+        <v>0.8539988054483625</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,90 +924,152 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.141729999999999</v>
+        <v>0.452919</v>
       </c>
       <c r="N8">
-        <v>16.28346</v>
+        <v>0.905838</v>
       </c>
       <c r="O8">
-        <v>0.7024686483203414</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P8">
-        <v>0.6139393975269154</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q8">
-        <v>20.153814544425</v>
+        <v>2.4482294233335</v>
       </c>
       <c r="R8">
-        <v>80.61525817769999</v>
+        <v>9.792917693334001</v>
       </c>
       <c r="S8">
-        <v>0.6303921006402248</v>
+        <v>0.02994458868128273</v>
       </c>
       <c r="T8">
-        <v>0.5240608244274887</v>
+        <v>0.02604014355116527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.4054465</v>
+      </c>
+      <c r="H9">
+        <v>10.810893</v>
+      </c>
+      <c r="I9">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J9">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.282732333333333</v>
+      </c>
+      <c r="N9">
+        <v>9.848196999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.2484598283839946</v>
+      </c>
+      <c r="P9">
+        <v>0.3315066943791922</v>
+      </c>
+      <c r="Q9">
+        <v>17.7446340016535</v>
+      </c>
+      <c r="R9">
+        <v>106.467804009921</v>
+      </c>
+      <c r="S9">
+        <v>0.2170367537515851</v>
+      </c>
+      <c r="T9">
+        <v>0.2831063209979656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>2.4753725</v>
-      </c>
-      <c r="H9">
-        <v>4.950745</v>
-      </c>
-      <c r="I9">
-        <v>0.8973953530133233</v>
-      </c>
-      <c r="J9">
-        <v>0.8536035096273711</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05984166666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.179525</v>
-      </c>
-      <c r="O9">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="P9">
-        <v>0.006768676334207809</v>
-      </c>
-      <c r="Q9">
-        <v>0.1481304160208333</v>
-      </c>
-      <c r="R9">
-        <v>0.8887824961249998</v>
-      </c>
-      <c r="S9">
-        <v>0.004633378158672925</v>
-      </c>
-      <c r="T9">
-        <v>0.005777765874411514</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.4054465</v>
+      </c>
+      <c r="H10">
+        <v>10.810893</v>
+      </c>
+      <c r="I10">
+        <v>0.8735285505234867</v>
+      </c>
+      <c r="J10">
+        <v>0.8539988054483625</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.476675</v>
+      </c>
+      <c r="N10">
+        <v>18.95335</v>
+      </c>
+      <c r="O10">
+        <v>0.7172601373076389</v>
+      </c>
+      <c r="P10">
+        <v>0.638001291598032</v>
+      </c>
+      <c r="Q10">
+        <v>51.2256597103875</v>
+      </c>
+      <c r="R10">
+        <v>204.90263884155</v>
+      </c>
+      <c r="S10">
+        <v>0.6265472080906188</v>
+      </c>
+      <c r="T10">
+        <v>0.5448523408992317</v>
       </c>
     </row>
   </sheetData>
